--- a/Тестирование/lab1/Вариант 1/Лист Microsoft Excel.xlsx
+++ b/Тестирование/lab1/Вариант 1/Лист Microsoft Excel.xlsx
@@ -215,7 +215,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,19 +228,20 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -269,13 +270,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -290,6 +295,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,15 +307,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,66 +328,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF8000"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -389,18 +338,20 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P44" activeCellId="0" sqref="P44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M60" activeCellId="0" sqref="M60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
@@ -412,10 +363,10 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="4" t="n">
         <f aca="false">A17</f>
         <v>13</v>
       </c>
@@ -439,10 +390,10 @@
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <f aca="false">SUM(C5:C17)</f>
         <v>16</v>
       </c>
@@ -451,25 +402,25 @@
       <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -477,25 +428,25 @@
       <c r="A6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="4" t="n">
         <f aca="false">E11</f>
         <v>7</v>
       </c>
@@ -504,25 +455,25 @@
       <c r="A7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="7" t="n">
         <f aca="false">SUM(G5:G11)</f>
         <v>20</v>
       </c>
@@ -531,25 +482,25 @@
       <c r="A8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,25 +508,25 @@
       <c r="A9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="7" t="n">
         <f aca="false">J3+J6</f>
         <v>20</v>
       </c>
@@ -584,25 +535,25 @@
       <c r="A10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5" t="n">
+      <c r="F10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="7" t="n">
         <f aca="false">J4+J7</f>
         <v>36</v>
       </c>
@@ -611,25 +562,25 @@
       <c r="A11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="G11" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="7" t="n">
         <f aca="false">J5+J8</f>
         <v>2</v>
       </c>
@@ -638,18 +589,18 @@
       <c r="A12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="7" t="n">
         <f aca="false">J3*LOG(J3,2)+J6*LOG(J6,2)</f>
         <v>67.7572007902374</v>
       </c>
@@ -658,18 +609,18 @@
       <c r="A13" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="C13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="7" t="n">
         <f aca="false">J10*LOG(J9,2)</f>
         <v>155.589411415945</v>
       </c>
@@ -678,18 +629,18 @@
       <c r="A14" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="C14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="7" t="n">
         <f aca="false">J12*LOG(J11,2)</f>
         <v>67.7572007902374</v>
       </c>
@@ -698,38 +649,38 @@
       <c r="A15" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="C15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="7" t="n">
         <f aca="false">J14/J13</f>
-        <v>0.435487223543116</v>
+        <v>0.435487223543115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="C16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="7" t="n">
         <f aca="false">2*J6/(J3*J7)</f>
         <v>0.0538461538461539</v>
       </c>
@@ -738,140 +689,140 @@
       <c r="A17" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="2" t="s">
+      <c r="C17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="7" t="n">
         <f aca="false">J13/(J16*2)</f>
         <v>1444.75882029092</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="2" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="7" t="n">
         <f aca="false">1/J16</f>
         <v>18.5714285714286</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="7" t="n">
         <f aca="false">J17/18</f>
-        <v>80.264378905051</v>
+        <v>80.2643789050509</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="2" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="7" t="n">
         <f aca="false">J13/J18</f>
-        <v>8.3778913839355</v>
+        <v>8.37789138393549</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="2" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="7" t="n">
         <f aca="false">J15^2*J13</f>
         <v>29.5073952471939</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
@@ -884,10 +835,10 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="4" t="n">
         <f aca="false">A38</f>
         <v>10</v>
       </c>
@@ -911,10 +862,10 @@
       <c r="G28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="4" t="n">
+      <c r="J28" s="5" t="n">
         <f aca="false">SUM(C29:C38)</f>
         <v>16</v>
       </c>
@@ -923,25 +874,25 @@
       <c r="A29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="6" t="n">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -949,25 +900,25 @@
       <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="3" t="n">
+      <c r="J30" s="4" t="n">
         <f aca="false">E34</f>
         <v>6</v>
       </c>
@@ -976,25 +927,25 @@
       <c r="A31" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="G31" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="7" t="n">
         <f aca="false">SUM(G29:G34)</f>
         <v>20</v>
       </c>
@@ -1003,25 +954,25 @@
       <c r="A32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="G32" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="G32" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1029,25 +980,25 @@
       <c r="A33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="F33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="7" t="n">
         <f aca="false">J27+J30</f>
         <v>16</v>
       </c>
@@ -1056,25 +1007,25 @@
       <c r="A34" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="5" t="n">
+      <c r="G34" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="7" t="n">
         <f aca="false">J28+J31</f>
         <v>36</v>
       </c>
@@ -1083,17 +1034,17 @@
       <c r="A35" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="I35" s="2" t="s">
+      <c r="C35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="I35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="7" t="n">
         <f aca="false">J29+J32</f>
         <v>2</v>
       </c>
@@ -1102,18 +1053,18 @@
       <c r="A36" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
+      <c r="C36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="5" t="n">
+      <c r="J36" s="7" t="n">
         <f aca="false">J27*LOG(J27,2)+J30*LOG(J30,2)</f>
         <v>48.7290559532006</v>
       </c>
@@ -1122,18 +1073,18 @@
       <c r="A37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
+      <c r="C37" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="5" t="n">
+      <c r="J37" s="7" t="n">
         <f aca="false">J34*LOG(J33,2)</f>
         <v>144</v>
       </c>
@@ -1142,202 +1093,202 @@
       <c r="A38" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
+      <c r="C38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="5" t="n">
+      <c r="J38" s="7" t="n">
         <f aca="false">J36*LOG(J35,2)</f>
         <v>48.7290559532006</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="5" t="n">
+      <c r="J39" s="7" t="n">
         <f aca="false">J38/J37</f>
         <v>0.338396221897226</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J40" s="5" t="n">
+      <c r="J40" s="7" t="n">
         <f aca="false">2*J30/(J27*J31)</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="2" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="5" t="n">
+      <c r="J41" s="7" t="n">
         <f aca="false">J37/(J40*2)</f>
         <v>1200</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="2" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="5" t="n">
+      <c r="J42" s="7" t="n">
         <f aca="false">1/J40</f>
         <v>16.6666666666667</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="2" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="5" t="n">
+      <c r="J43" s="7" t="n">
         <f aca="false">J41/18</f>
         <v>66.6666666666667</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="2" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J44" s="5" t="n">
+      <c r="J44" s="7" t="n">
         <f aca="false">J37/J42</f>
         <v>8.64</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="2" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="5" t="n">
+      <c r="J45" s="7" t="n">
         <f aca="false">J39^2*J37</f>
         <v>16.4897284311816</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
@@ -1350,10 +1301,10 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3" t="n">
+      <c r="J52" s="4" t="n">
         <f aca="false">A63</f>
         <v>10</v>
       </c>
@@ -1377,10 +1328,10 @@
       <c r="G53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="4" t="n">
+      <c r="J53" s="5" t="n">
         <f aca="false">SUM(C54:C63)</f>
         <v>14</v>
       </c>
@@ -1389,25 +1340,25 @@
       <c r="A54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="6" t="n">
         <v>4</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="G54" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="7" t="n">
+      <c r="J54" s="9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1415,25 +1366,25 @@
       <c r="A55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="G55" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="3" t="n">
+      <c r="J55" s="4" t="n">
         <f aca="false">E59</f>
         <v>6</v>
       </c>
@@ -1442,25 +1393,25 @@
       <c r="A56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="4" t="n">
+      <c r="C56" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="F56" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" s="2" t="s">
+      <c r="G56" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="5" t="n">
+      <c r="J56" s="7" t="n">
         <f aca="false">SUM(G54:G59)</f>
         <v>19</v>
       </c>
@@ -1469,25 +1420,25 @@
       <c r="A57" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F57" s="4" t="n">
+      <c r="F57" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="G57" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="G57" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="8" t="n">
+      <c r="J57" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1495,25 +1446,25 @@
       <c r="A58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="F58" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="5" t="n">
+      <c r="J58" s="7" t="n">
         <f aca="false">J52+J55</f>
         <v>16</v>
       </c>
@@ -1522,25 +1473,25 @@
       <c r="A59" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="5" t="n">
+      <c r="G59" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="7" t="n">
         <f aca="false">J53+J56</f>
         <v>33</v>
       </c>
@@ -1549,19 +1500,19 @@
       <c r="A60" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="I60" s="2" t="s">
+      <c r="C60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="I60" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="5" t="n">
+      <c r="J60" s="7" t="n">
         <f aca="false">J54+J57</f>
         <v>2</v>
       </c>
@@ -1570,18 +1521,18 @@
       <c r="A61" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2" t="s">
+      <c r="C61" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="5" t="n">
+      <c r="J61" s="7" t="n">
         <f aca="false">J52*LOG(J52,2)+J55*LOG(J55,2)</f>
         <v>48.7290559532006</v>
       </c>
@@ -1590,18 +1541,18 @@
       <c r="A62" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2" t="s">
+      <c r="C62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="5" t="n">
+      <c r="J62" s="7" t="n">
         <f aca="false">J59*LOG(J58,2)</f>
         <v>132</v>
       </c>
@@ -1610,127 +1561,127 @@
       <c r="A63" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
+      <c r="C63" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J63" s="5" t="n">
+      <c r="J63" s="7" t="n">
         <f aca="false">J61*LOG(J60,2)</f>
         <v>48.7290559532006</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
+      <c r="A64" s="3"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J64" s="5" t="n">
+      <c r="J64" s="7" t="n">
         <f aca="false">J63/J62</f>
         <v>0.369159514796974</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
+      <c r="A65" s="3"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="5" t="n">
+      <c r="J65" s="7" t="n">
         <f aca="false">2*J55/(J52*J56)</f>
         <v>0.0631578947368421</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="2" t="s">
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J66" s="5" t="n">
+      <c r="J66" s="7" t="n">
         <f aca="false">J62/(J65*2)</f>
         <v>1045</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="2" t="s">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J67" s="5" t="n">
+      <c r="J67" s="7" t="n">
         <f aca="false">1/J65</f>
         <v>15.8333333333333</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="2" t="s">
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J68" s="5" t="n">
+      <c r="J68" s="7" t="n">
         <f aca="false">J66/18</f>
         <v>58.0555555555556</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="2" t="s">
+      <c r="A69" s="3"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J69" s="5" t="n">
+      <c r="J69" s="7" t="n">
         <f aca="false">J62/J67</f>
         <v>8.33684210526316</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="2" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="5" t="n">
+      <c r="J70" s="7" t="n">
         <f aca="false">J64^2*J62</f>
         <v>17.9887946521981</v>
       </c>
@@ -1745,7 +1696,7 @@
     <mergeCell ref="E52:G52"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
